--- a/biology/Zoologie/Grammicolepididae/Grammicolepididae.xlsx
+++ b/biology/Zoologie/Grammicolepididae/Grammicolepididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grammicolépididés (Grammicolepididae) forment une petite famille de poissons d'eau profonde, appelés poissons scintillants en raison de leur couleur argentée.
 Ils sont liés aux zéidés qui ont également le corps comprimé. La plus grande espèce, Grammicolepis brachiusculus, mesure jusqu'à 64 centimètres de longueur.
@@ -513,16 +525,18 @@
           <t>Sous-taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il y a trois espèces dans trois genres selon FishBase[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il y a trois espèces dans trois genres selon FishBase :
 genre Grammicolepis
 Grammicolepis brachiusculus Poey, 1873
 genre Macrurocyttus
 Macrurocyttus acanthopodus Fowler, 1934
 genre Xenolepidichthys
 Xenolepidichthys dalgleishi Gilchrist, 1922
-Il y a deux sous-familles selon ITIS[2] et WRMS[3] :
+Il y a deux sous-familles selon ITIS et WRMS :
 sous-famille Grammicolepidinae Poey, 1873
 sous-famille Macrurocyttinae Myers, 1960</t>
         </is>
